--- a/data/brue.xlsx
+++ b/data/brue.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernh/Documents/Studium/Python/AP2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDBA5B3-95BA-1948-B0BB-D83DF159A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E60F47-6E3D-EC4B-93E2-D148EC03ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{521686A3-66A2-6146-B3C5-61ECAE0E5CD0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="3" xr2:uid="{521686A3-66A2-6146-B3C5-61ECAE0E5CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
     <sheet name="Messunsicherheiten" sheetId="7" r:id="rId2"/>
     <sheet name="Aufgabe 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Aufgabe 3" sheetId="3" r:id="rId4"/>
-    <sheet name="Aufgabe 4" sheetId="4" r:id="rId5"/>
-    <sheet name="Aufgabe 5" sheetId="5" r:id="rId6"/>
-    <sheet name="Aufgabe 6" sheetId="6" r:id="rId7"/>
+    <sheet name="part_3" sheetId="8" r:id="rId4"/>
+    <sheet name="Aufgabe 3" sheetId="3" r:id="rId5"/>
+    <sheet name="Aufgabe 4" sheetId="4" r:id="rId6"/>
+    <sheet name="Aufgabe 5" sheetId="5" r:id="rId7"/>
+    <sheet name="Aufgabe 6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>10ner portentiometer</t>
   </si>
@@ -264,6 +265,24 @@
   </si>
   <si>
     <t>Potentiometer 8,22 Umdrehungen</t>
+  </si>
+  <si>
+    <t>10 Ω</t>
+  </si>
+  <si>
+    <t>Umdrehungen</t>
+  </si>
+  <si>
+    <t>30 Ω</t>
+  </si>
+  <si>
+    <t>100 Ω</t>
+  </si>
+  <si>
+    <t>200 Ω</t>
+  </si>
+  <si>
+    <t>Kondensator</t>
   </si>
 </sst>
 </file>
@@ -299,8 +318,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD5731-6AC5-B846-AB5C-2D6A8A9CC724}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -683,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7243C1-CC4D-4A40-B8F5-14CF6C635DA6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +741,14 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -776,11 +804,180 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F56F6-7C7D-8646-8F36-7B05D6191D78}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1.01</v>
+      </c>
+      <c r="B1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C1">
+        <v>1.01</v>
+      </c>
+      <c r="D1">
+        <v>5.85</v>
+      </c>
+      <c r="E1">
+        <v>1.01</v>
+      </c>
+      <c r="F1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8.69</v>
+      </c>
+      <c r="C2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D2">
+        <v>6.7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C3">
+        <v>2.99</v>
+      </c>
+      <c r="D3">
+        <v>7.12</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4.01</v>
+      </c>
+      <c r="D4">
+        <v>7.39</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="B5">
+        <v>9.08</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7.57</v>
+      </c>
+      <c r="E5">
+        <v>5.05</v>
+      </c>
+      <c r="F5">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5.99</v>
+      </c>
+      <c r="B6">
+        <v>9.15</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7.72</v>
+      </c>
+      <c r="E6">
+        <v>6.04</v>
+      </c>
+      <c r="F6">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.01</v>
+      </c>
+      <c r="B25">
+        <v>1.92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964A3D-ECAE-684D-8973-CDBE92B09D8E}">
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF6BD66-6A4E-B844-99EC-DB970F9B238E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1019,7 +1216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9867574C-E512-D44F-BA8F-00B84D4C1B50}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1078,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89056EF-6ABE-CB46-9488-6B442F71C491}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/data/brue.xlsx
+++ b/data/brue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernh/Documents/Studium/Python/AP2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E60F47-6E3D-EC4B-93E2-D148EC03ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C0844-624A-4440-90A0-69FF6AB8AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="3" xr2:uid="{521686A3-66A2-6146-B3C5-61ECAE0E5CD0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{521686A3-66A2-6146-B3C5-61ECAE0E5CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
@@ -703,13 +703,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7243C1-CC4D-4A40-B8F5-14CF6C635DA6}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -749,6 +753,11 @@
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
